--- a/варианты/шастин/9/22.xlsx
+++ b/варианты/шастин/9/22.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -55,7 +55,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,17 +78,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -213,20 +226,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="S15" sqref="S15:AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="3"/>
+    <col min="1" max="1" width="5.85546875" style="3"/>
     <col min="2" max="2" width="8" style="3" customWidth="1"/>
-    <col min="3" max="5" width="5.88671875" style="3"/>
+    <col min="3" max="5" width="5.85546875" style="3"/>
+    <col min="6" max="45" width="3" customWidth="1"/>
+    <col min="46" max="46" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -238,8 +253,125 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+      <c r="Q1">
+        <v>11</v>
+      </c>
+      <c r="R1">
+        <v>12</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>14</v>
+      </c>
+      <c r="U1">
+        <v>15</v>
+      </c>
+      <c r="V1">
+        <v>16</v>
+      </c>
+      <c r="W1">
+        <v>17</v>
+      </c>
+      <c r="X1">
+        <v>18</v>
+      </c>
+      <c r="Y1">
+        <v>19</v>
+      </c>
+      <c r="Z1">
+        <v>20</v>
+      </c>
+      <c r="AA1">
+        <v>21</v>
+      </c>
+      <c r="AB1">
+        <v>22</v>
+      </c>
+      <c r="AC1">
+        <v>23</v>
+      </c>
+      <c r="AD1">
+        <v>24</v>
+      </c>
+      <c r="AE1">
+        <v>25</v>
+      </c>
+      <c r="AF1">
+        <v>26</v>
+      </c>
+      <c r="AG1">
+        <v>27</v>
+      </c>
+      <c r="AH1">
+        <v>28</v>
+      </c>
+      <c r="AI1">
+        <v>29</v>
+      </c>
+      <c r="AJ1">
+        <v>30</v>
+      </c>
+      <c r="AK1">
+        <v>31</v>
+      </c>
+      <c r="AL1">
+        <v>32</v>
+      </c>
+      <c r="AM1">
+        <v>33</v>
+      </c>
+      <c r="AN1">
+        <v>34</v>
+      </c>
+      <c r="AO1">
+        <v>35</v>
+      </c>
+      <c r="AP1">
+        <v>36</v>
+      </c>
+      <c r="AQ1">
+        <v>37</v>
+      </c>
+      <c r="AR1">
+        <v>38</v>
+      </c>
+      <c r="AS1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -251,8 +383,48 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="b">
+        <f>SUM(G2:AS2)=B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -264,8 +436,36 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="AT3" t="b">
+        <f t="shared" ref="AT3:AT14" si="0">SUM(G3:AS3)=B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -279,8 +479,18 @@
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -292,8 +502,18 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -305,8 +525,45 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -318,8 +575,51 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -331,8 +631,45 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="5">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -348,8 +685,24 @@
       <c r="E9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -361,8 +714,36 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -374,8 +755,45 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -387,8 +805,24 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -402,8 +836,30 @@
         <v>11</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="5">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -415,8 +871,242 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="F14" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AT14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>SUM(G2:G14)</f>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:AS15" si="1">SUM(H2:H14)</f>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G15:AS15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:AS14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
